--- a/data/trans_orig/Predimed_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Predimed_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2E7E391-B7D2-4D12-BE5B-799A1F793969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D47BFFF-16D7-455D-9ED3-F64F44885C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F0000084-242B-43AF-97ED-3A8401CD2848}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A0550F08-DCFF-4225-89DD-A16FFD73698C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
   <si>
     <t>Población según adherencia a la dieta mediterránea en 2023 (Tasa respuesta: 94,27%)</t>
   </si>
@@ -71,61 +71,61 @@
     <t>Alta</t>
   </si>
   <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
   </si>
   <si>
     <t>Baja</t>
   </si>
   <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,58 +134,52 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
+    <t>9,65%</t>
   </si>
   <si>
     <t>16,82%</t>
   </si>
   <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
   </si>
   <si>
     <t>83,18%</t>
   </si>
   <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,103 +188,103 @@
     <t>22,1%</t>
   </si>
   <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
   </si>
   <si>
     <t>77,9%</t>
   </si>
   <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -705,7 +699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67136B39-D3F7-4700-B586-7B9BC35C5B89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2A1644-F061-46DC-85BE-670B001A0406}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -826,7 +820,7 @@
         <v>103</v>
       </c>
       <c r="D4" s="7">
-        <v>78517</v>
+        <v>75228</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -841,7 +835,7 @@
         <v>201</v>
       </c>
       <c r="I4" s="7">
-        <v>127752</v>
+        <v>114400</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -856,7 +850,7 @@
         <v>304</v>
       </c>
       <c r="N4" s="7">
-        <v>206269</v>
+        <v>189628</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -877,7 +871,7 @@
         <v>527</v>
       </c>
       <c r="D5" s="7">
-        <v>411390</v>
+        <v>390715</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -892,7 +886,7 @@
         <v>1111</v>
       </c>
       <c r="I5" s="7">
-        <v>647678</v>
+        <v>585111</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -907,7 +901,7 @@
         <v>1638</v>
       </c>
       <c r="N5" s="7">
-        <v>1059068</v>
+        <v>975826</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -928,7 +922,7 @@
         <v>630</v>
       </c>
       <c r="D6" s="7">
-        <v>489907</v>
+        <v>465943</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -943,7 +937,7 @@
         <v>1312</v>
       </c>
       <c r="I6" s="7">
-        <v>775430</v>
+        <v>699511</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -958,7 +952,7 @@
         <v>1942</v>
       </c>
       <c r="N6" s="7">
-        <v>1265337</v>
+        <v>1165454</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -981,46 +975,46 @@
         <v>328</v>
       </c>
       <c r="D7" s="7">
-        <v>310630</v>
+        <v>301946</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>571</v>
       </c>
       <c r="I7" s="7">
-        <v>384533</v>
+        <v>378592</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>899</v>
       </c>
       <c r="N7" s="7">
-        <v>695163</v>
+        <v>680538</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1032,46 +1026,46 @@
         <v>1557</v>
       </c>
       <c r="D8" s="7">
-        <v>1697205</v>
+        <v>1831429</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>2207</v>
       </c>
       <c r="I8" s="7">
-        <v>1741658</v>
+        <v>1745680</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>3764</v>
       </c>
       <c r="N8" s="7">
-        <v>3438863</v>
+        <v>3577110</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1083,7 +1077,7 @@
         <v>1885</v>
       </c>
       <c r="D9" s="7">
-        <v>2007835</v>
+        <v>2133375</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1098,7 +1092,7 @@
         <v>2778</v>
       </c>
       <c r="I9" s="7">
-        <v>2126191</v>
+        <v>2124272</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1113,7 +1107,7 @@
         <v>4663</v>
       </c>
       <c r="N9" s="7">
-        <v>4134026</v>
+        <v>4257648</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1127,7 +1121,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1136,46 +1130,46 @@
         <v>139</v>
       </c>
       <c r="D10" s="7">
-        <v>142334</v>
+        <v>136905</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>213</v>
       </c>
       <c r="I10" s="7">
-        <v>150946</v>
+        <v>139438</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>352</v>
       </c>
       <c r="N10" s="7">
-        <v>293280</v>
+        <v>276344</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1187,46 +1181,46 @@
         <v>513</v>
       </c>
       <c r="D11" s="7">
-        <v>501635</v>
+        <v>482535</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H11" s="7">
         <v>754</v>
       </c>
       <c r="I11" s="7">
-        <v>531084</v>
+        <v>491774</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M11" s="7">
         <v>1267</v>
       </c>
       <c r="N11" s="7">
-        <v>1032719</v>
+        <v>974309</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1238,7 +1232,7 @@
         <v>652</v>
       </c>
       <c r="D12" s="7">
-        <v>643969</v>
+        <v>619440</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1253,7 +1247,7 @@
         <v>967</v>
       </c>
       <c r="I12" s="7">
-        <v>682030</v>
+        <v>631212</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1268,7 +1262,7 @@
         <v>1619</v>
       </c>
       <c r="N12" s="7">
-        <v>1325999</v>
+        <v>1250653</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1291,46 +1285,46 @@
         <v>570</v>
       </c>
       <c r="D13" s="7">
-        <v>531482</v>
+        <v>514079</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H13" s="7">
         <v>985</v>
       </c>
       <c r="I13" s="7">
-        <v>663231</v>
+        <v>632430</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M13" s="7">
         <v>1555</v>
       </c>
       <c r="N13" s="7">
-        <v>1194712</v>
+        <v>1146509</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1342,46 +1336,46 @@
         <v>2597</v>
       </c>
       <c r="D14" s="7">
-        <v>2610230</v>
+        <v>2704679</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>4072</v>
       </c>
       <c r="I14" s="7">
-        <v>2920419</v>
+        <v>2822566</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>6669</v>
       </c>
       <c r="N14" s="7">
-        <v>5530650</v>
+        <v>5527245</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1393,7 +1387,7 @@
         <v>3167</v>
       </c>
       <c r="D15" s="7">
-        <v>3141712</v>
+        <v>3218758</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1408,7 +1402,7 @@
         <v>5057</v>
       </c>
       <c r="I15" s="7">
-        <v>3583650</v>
+        <v>3454996</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1423,7 +1417,7 @@
         <v>8224</v>
       </c>
       <c r="N15" s="7">
-        <v>6725362</v>
+        <v>6673754</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1437,7 +1431,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
